--- a/现金流量表/300918.xlsx
+++ b/现金流量表/300918.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>381758316.65</v>
+        <v>14058996.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1395.565456823</v>
+        <v>14.8292509966</v>
       </c>
       <c r="Q2" t="n">
-        <v>1883010534.29</v>
+        <v>1508449549.66</v>
       </c>
       <c r="R2" t="n">
-        <v>6883.581422794</v>
+        <v>1591.0934566102</v>
       </c>
       <c r="S2" t="n">
-        <v>419601353.24</v>
+        <v>419925817.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1533.9054283258</v>
+        <v>442.9324268329</v>
       </c>
       <c r="U2" t="n">
-        <v>-136197275.85</v>
+        <v>-44203250.75</v>
       </c>
       <c r="V2" t="n">
-        <v>-497.8862416347</v>
+        <v>-46.6250283578</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>136299115.53</v>
+        <v>44278869.86</v>
       </c>
       <c r="Z2" t="n">
-        <v>498.2585293711</v>
+        <v>46.7047904361</v>
       </c>
       <c r="AA2" t="n">
-        <v>-219962290.7</v>
+        <v>127199771.53</v>
       </c>
       <c r="AB2" t="n">
-        <v>-804.0997702377</v>
+        <v>134.168706013</v>
       </c>
       <c r="AC2" t="n">
-        <v>27355099.31</v>
+        <v>94805842.06999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238.6395355228</v>
+        <v>114.9012626191</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300918.xlsx
+++ b/现金流量表/300918.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>14058996.28</v>
+        <v>194356845.08</v>
       </c>
       <c r="P2" t="n">
-        <v>14.8292509966</v>
+        <v>9510.9783326012</v>
       </c>
       <c r="Q2" t="n">
-        <v>1508449549.66</v>
+        <v>1991315077.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1591.0934566102</v>
+        <v>97446.2954815812</v>
       </c>
       <c r="S2" t="n">
-        <v>419925817.06</v>
+        <v>446432829.47</v>
       </c>
       <c r="T2" t="n">
-        <v>442.9324268329</v>
+        <v>21846.4802014219</v>
       </c>
       <c r="U2" t="n">
-        <v>-44203250.75</v>
+        <v>-149939510.81</v>
       </c>
       <c r="V2" t="n">
-        <v>-46.6250283578</v>
+        <v>-7337.3872575867</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>44278869.86</v>
+        <v>149964524.17</v>
       </c>
       <c r="Z2" t="n">
-        <v>46.7047904361</v>
+        <v>7338.6113025895</v>
       </c>
       <c r="AA2" t="n">
-        <v>127199771.53</v>
+        <v>-46069025.18</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.168706013</v>
+        <v>-2254.4176414815</v>
       </c>
       <c r="AC2" t="n">
-        <v>94805842.06999999</v>
+        <v>2043500.03</v>
       </c>
       <c r="AD2" t="n">
-        <v>114.9012626191</v>
+        <v>-97.8445420816</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300918.xlsx
+++ b/现金流量表/300918.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>194356845.08</v>
+        <v>53776231.36</v>
       </c>
       <c r="P2" t="n">
-        <v>9510.9783326012</v>
+        <v>171.1675706893</v>
       </c>
       <c r="Q2" t="n">
-        <v>1991315077.4</v>
+        <v>463550071.55</v>
       </c>
       <c r="R2" t="n">
-        <v>97446.2954815812</v>
+        <v>1475.4611402369</v>
       </c>
       <c r="S2" t="n">
-        <v>446432829.47</v>
+        <v>172677093.55</v>
       </c>
       <c r="T2" t="n">
-        <v>21846.4802014219</v>
+        <v>549.6242088586999</v>
       </c>
       <c r="U2" t="n">
-        <v>-149939510.81</v>
+        <v>-10768698.43</v>
       </c>
       <c r="V2" t="n">
-        <v>-7337.3872575867</v>
+        <v>-34.276331813</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>149964524.17</v>
+        <v>11174577.54</v>
       </c>
       <c r="Z2" t="n">
-        <v>7338.6113025895</v>
+        <v>35.5682286138</v>
       </c>
       <c r="AA2" t="n">
-        <v>-46069025.18</v>
+        <v>-79071922.87</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2254.4176414815</v>
+        <v>-251.6827342694</v>
       </c>
       <c r="AC2" t="n">
-        <v>2043500.03</v>
+        <v>-31417301.27</v>
       </c>
       <c r="AD2" t="n">
-        <v>-97.8445420816</v>
+        <v>84.1956267568</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300918.xlsx
+++ b/现金流量表/300918.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>53776231.36</v>
+        <v>14058996.28</v>
       </c>
       <c r="P2" t="n">
-        <v>171.1675706893</v>
+        <v>14.8292509966</v>
       </c>
       <c r="Q2" t="n">
-        <v>463550071.55</v>
+        <v>1508449549.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1475.4611402369</v>
+        <v>1591.0934566102</v>
       </c>
       <c r="S2" t="n">
-        <v>172677093.55</v>
+        <v>419925817.06</v>
       </c>
       <c r="T2" t="n">
-        <v>549.6242088586999</v>
+        <v>442.9324268329</v>
       </c>
       <c r="U2" t="n">
-        <v>-10768698.43</v>
+        <v>-44203250.75</v>
       </c>
       <c r="V2" t="n">
-        <v>-34.276331813</v>
+        <v>-46.6250283578</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11174577.54</v>
+        <v>44278869.86</v>
       </c>
       <c r="Z2" t="n">
-        <v>35.5682286138</v>
+        <v>46.7047904361</v>
       </c>
       <c r="AA2" t="n">
-        <v>-79071922.87</v>
+        <v>127199771.53</v>
       </c>
       <c r="AB2" t="n">
-        <v>-251.6827342694</v>
+        <v>134.168706013</v>
       </c>
       <c r="AC2" t="n">
-        <v>-31417301.27</v>
+        <v>94805842.06999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>84.1956267568</v>
+        <v>114.9012626191</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
